--- a/biology/Médecine/Pierre_Baux_(1679-1732)/Pierre_Baux_(1679-1732).xlsx
+++ b/biology/Médecine/Pierre_Baux_(1679-1732)/Pierre_Baux_(1679-1732).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Baux, né le  12 août 1679 sans doute à Nîmes et mort le 3 septembre 1732 à Saint-Dionisy près de Nîmes[1], est un médecin français célèbre.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Baux, né le  12 août 1679 sans doute à Nîmes et mort le 3 septembre 1732 à Saint-Dionisy près de Nîmes, est un médecin français célèbre.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Protestant, il fit néanmoins ses premières classes dans un collège de jésuites (les édits de 1685 et 1686 obligeaient les protestants à faire élever leurs enfants dans la religion catholique). 
 Il fut ensuite à Montpellier et – sur demande de son père – à Orange où il étudia la médecine.
@@ -548,7 +562,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Ier Baux est le petit-fils de Salomon Baux, né à Mazamet en 1612 et mort à Nîmes en 1654, médecin français, cofondateur du Collège royal de Nîmes.
 Marié à Bernardine de Duranti, fille d’Étiennette des Porcellets et de Guillaume de Duranti, en avril 1643, Salomon Baux est reçu docteur à l’Université d’Orange le 20 mai 1634. Il s’installe ensuite à Nîmes, où il devient l'un des sept fondateurs du Collège royal de médecine en 1650. Il avait la réputation d’être un très bon médecin. Son art s’est particulièrement manifesté lors de la peste de 1649.
